--- a/DA/cap08-BasesDeDatos/IPT_ACRM_BD3-ArticulosProductos_150401.xlsx
+++ b/DA/cap08-BasesDeDatos/IPT_ACRM_BD3-ArticulosProductos_150401.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\Ingeteam\DA\cap08-BasesDeDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DA\cap08-BasesDeDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -759,7 +759,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
